--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2112133.532225107</v>
+        <v>2205778.471394364</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577127</v>
+        <v>612367.9462114755</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6096617.412057286</v>
+        <v>6448683.072906737</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>276.8841415733319</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -671,7 +673,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>124.8991389358905</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +749,7 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>92.70937201392506</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
         <v>93.11323406457203</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>46.4693526710085</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -865,7 +867,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>33.87144689689364</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>400.8703422898263</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>304.0943407581122</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -953,10 +955,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
@@ -1054,16 +1056,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>36.09598890596773</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>168.739959158547</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>189.1905442677485</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1139,16 +1141,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>81.48697791125809</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>98.76985806633189</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>192.0110496463976</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1357,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G11" t="n">
-        <v>379.7878231275053</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.54790254396356</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1540,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>98.80880479041799</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.54606595311041</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1768,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1777,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>72.51017950359405</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>117.1585426144802</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1828,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1847,7 +1849,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>7.289790390561325</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -2053,16 +2055,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>110.0245581786281</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2090,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>29.91246389134805</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2299,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>28.16874740712048</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2374,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -2476,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2485,7 +2487,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>156.3950745845505</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0.670782963737995</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2719,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>96.44420510686395</v>
+        <v>75.03211233283403</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2810,7 +2812,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2950,10 +2952,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>189.6818835739901</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3016,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>40.24230334859364</v>
       </c>
     </row>
     <row r="32">
@@ -3193,7 +3195,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>11.12043047005107</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3247,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>206.8644797515791</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3272,19 +3274,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396356</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3439,10 +3441,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>123.9086344760398</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396256</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,16 +3663,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>63.77073265932181</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>106.0910900114352</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3724,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>307.4973771693437</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3746,10 +3748,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3800,7 +3802,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3898,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.601121629</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>90.83269277277849</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8.216116532302431</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864462</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4028,22 +4030,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>16.01117124350774</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4150,7 +4152,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>45.44275720140884</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1369.361590511541</v>
+        <v>823.499659571801</v>
       </c>
       <c r="C2" t="n">
-        <v>942.4608605248408</v>
+        <v>800.6393336255052</v>
       </c>
       <c r="D2" t="n">
-        <v>923.2086437502451</v>
+        <v>520.9583825413315</v>
       </c>
       <c r="E2" t="n">
-        <v>901.2721079385067</v>
+        <v>499.0218467295931</v>
       </c>
       <c r="F2" t="n">
-        <v>476.1479261279069</v>
+        <v>73.89766491899334</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.59900654884603</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.59900654884603</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231725</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>401.3055941092127</v>
       </c>
       <c r="K2" t="n">
-        <v>856.3013579804531</v>
+        <v>403.5871017449251</v>
       </c>
       <c r="L2" t="n">
-        <v>1313.087264683184</v>
+        <v>882.526025987351</v>
       </c>
       <c r="M2" t="n">
-        <v>1769.873171385915</v>
+        <v>882.526025987351</v>
       </c>
       <c r="N2" t="n">
-        <v>1769.873171385915</v>
+        <v>882.526025987351</v>
       </c>
       <c r="O2" t="n">
-        <v>1769.873171385915</v>
+        <v>882.526025987351</v>
       </c>
       <c r="P2" t="n">
-        <v>1769.873171385915</v>
+        <v>1361.464950229777</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1817.55042973396</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615862</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489003</v>
       </c>
       <c r="T2" t="n">
-        <v>1520.30675795911</v>
+        <v>1609.813899533636</v>
       </c>
       <c r="U2" t="n">
-        <v>1520.30675795911</v>
+        <v>1609.813899533636</v>
       </c>
       <c r="V2" t="n">
-        <v>1394.146011559221</v>
+        <v>1252.324484659885</v>
       </c>
       <c r="W2" t="n">
-        <v>1394.146011559221</v>
+        <v>1252.324484659885</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.466416767372</v>
+        <v>1244.644889868037</v>
       </c>
       <c r="Y2" t="n">
-        <v>1385.169550762667</v>
+        <v>839.307619822927</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237724</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412772</v>
       </c>
       <c r="D3" t="n">
-        <v>382.689621525072</v>
+        <v>384.4797643565623</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980092</v>
+        <v>279.7778306294995</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809131</v>
+        <v>186.1320003124036</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851715</v>
+        <v>92.07822853000766</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231725</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273858</v>
+        <v>46.14877825422909</v>
       </c>
       <c r="J3" t="n">
-        <v>316.0561247023297</v>
+        <v>317.8462675338202</v>
       </c>
       <c r="K3" t="n">
-        <v>316.0561247023297</v>
+        <v>796.7851917762462</v>
       </c>
       <c r="L3" t="n">
-        <v>393.2225928484409</v>
+        <v>796.7851917762462</v>
       </c>
       <c r="M3" t="n">
-        <v>393.2225928484409</v>
+        <v>1275.724116018672</v>
       </c>
       <c r="N3" t="n">
-        <v>393.2225928484409</v>
+        <v>1301.224978925344</v>
       </c>
       <c r="O3" t="n">
-        <v>850.0084995511718</v>
+        <v>1301.224978925344</v>
       </c>
       <c r="P3" t="n">
-        <v>1306.794406253903</v>
+        <v>1301.224978925344</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434081</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651396</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.4455243905428</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438352</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>685.0352107310263</v>
+        <v>739.52845090818</v>
       </c>
       <c r="C4" t="n">
-        <v>685.0352107310263</v>
+        <v>567.555887787096</v>
       </c>
       <c r="D4" t="n">
-        <v>685.0352107310263</v>
+        <v>520.6171477153703</v>
       </c>
       <c r="E4" t="n">
-        <v>518.8270048838798</v>
+        <v>520.6171477153703</v>
       </c>
       <c r="F4" t="n">
-        <v>346.9652306584402</v>
+        <v>348.7553734899307</v>
       </c>
       <c r="G4" t="n">
-        <v>180.7082609526723</v>
+        <v>182.4984037841629</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231725</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231725</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.19346351647528</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>322.7210647223125</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>393.4019879271497</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.806038155494</v>
+        <v>784.5877828974005</v>
       </c>
       <c r="N4" t="n">
-        <v>1444.297549031529</v>
+        <v>1162.079293773436</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1517.5074224532</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1808.1066343751</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615862</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303036</v>
       </c>
       <c r="S4" t="n">
-        <v>1764.347427004375</v>
+        <v>1717.933103822171</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.347427004375</v>
+        <v>1717.933103822171</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.162978504679</v>
+        <v>1437.748655322475</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.451511112708</v>
+        <v>1156.037187930504</v>
       </c>
       <c r="W4" t="n">
-        <v>927.5991072852212</v>
+        <v>1156.037187930504</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0352107310263</v>
+        <v>1156.037187930504</v>
       </c>
       <c r="Y4" t="n">
-        <v>685.0352107310263</v>
+        <v>929.6944196202458</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>840.7760778081893</v>
+        <v>1258.989642055132</v>
       </c>
       <c r="C5" t="n">
-        <v>817.9157518618935</v>
+        <v>832.0889120684317</v>
       </c>
       <c r="D5" t="n">
-        <v>412.9962141954022</v>
+        <v>812.836695293836</v>
       </c>
       <c r="E5" t="n">
-        <v>391.0596783836638</v>
+        <v>386.8597554416936</v>
       </c>
       <c r="F5" t="n">
-        <v>369.9759006134681</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>369.6772422433207</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>493.6978991635576</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>493.6978991635576</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>814.4714747539724</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>1271.257381456703</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O5" t="n">
-        <v>1728.043288159434</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1520.30675795911</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1261.951848555523</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1261.951848555523</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>865.5604988558696</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X5" t="n">
-        <v>857.8809040640209</v>
+        <v>1276.094468310963</v>
       </c>
       <c r="Y5" t="n">
-        <v>856.5840380593153</v>
+        <v>1274.797602306257</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
-        <v>393.2225928484407</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M6" t="n">
-        <v>850.0084995511716</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N6" t="n">
-        <v>1306.794406253902</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O6" t="n">
-        <v>1763.580312956633</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.580312956633</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956633</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>781.9123460168331</v>
+        <v>992.2781682025577</v>
       </c>
       <c r="C7" t="n">
-        <v>781.9123460168331</v>
+        <v>820.3056050814737</v>
       </c>
       <c r="D7" t="n">
-        <v>618.5955731436038</v>
+        <v>656.9888322082444</v>
       </c>
       <c r="E7" t="n">
-        <v>618.5955731436038</v>
+        <v>490.7806263610979</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.086614473545</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U7" t="n">
-        <v>1214.642211283094</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="V7" t="n">
-        <v>1214.642211283094</v>
+        <v>1699.860437296305</v>
       </c>
       <c r="W7" t="n">
-        <v>1214.642211283094</v>
+        <v>1425.008033468818</v>
       </c>
       <c r="X7" t="n">
-        <v>972.0783147288987</v>
+        <v>1182.444136914623</v>
       </c>
       <c r="Y7" t="n">
-        <v>972.0783147288987</v>
+        <v>1182.444136914623</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1820.815201993657</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C8" t="n">
-        <v>1797.954876047361</v>
+        <v>511.1098178163287</v>
       </c>
       <c r="D8" t="n">
-        <v>1374.662255232361</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>948.6853153802184</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5611335696186</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>119.2220711590672</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>357.6855680512415</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>814.4714747539724</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1271.257381456703</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1271.257381456703</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.920028249488</v>
+        <v>1130.408973674147</v>
       </c>
       <c r="Y8" t="n">
-        <v>1836.623162244782</v>
+        <v>725.0717036290372</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>765.3953884431487</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L9" t="n">
-        <v>1222.18129514588</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="M9" t="n">
-        <v>1222.18129514588</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>1678.967201848611</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>1763.580312956634</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1763.580312956634</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1047.998874159959</v>
+        <v>488.1011306554951</v>
       </c>
       <c r="C10" t="n">
-        <v>876.0263110388753</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="D10" t="n">
-        <v>712.709538165646</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="E10" t="n">
-        <v>546.5013323184995</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="F10" t="n">
-        <v>446.7337989181643</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1428.000280878674</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>1983.922083951167</v>
       </c>
       <c r="U10" t="n">
-        <v>1565.415174541641</v>
+        <v>1703.737635451472</v>
       </c>
       <c r="V10" t="n">
-        <v>1565.415174541641</v>
+        <v>1422.026168059501</v>
       </c>
       <c r="W10" t="n">
-        <v>1290.562770714154</v>
+        <v>1147.173764232014</v>
       </c>
       <c r="X10" t="n">
-        <v>1047.998874159959</v>
+        <v>904.6098676778188</v>
       </c>
       <c r="Y10" t="n">
-        <v>1047.998874159959</v>
+        <v>678.2670993675608</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1308.133225325456</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>881.2324953387563</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>881.2324953387563</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>881.2324953387563</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>456.1083135281565</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G11" t="n">
-        <v>72.48424976299957</v>
+        <v>435.0679631883223</v>
       </c>
       <c r="H11" t="n">
-        <v>72.48424976299957</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>435.0877085798951</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>435.0877085798951</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>548.3062129717255</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.298803788845</v>
+        <v>2837.65448214973</v>
       </c>
       <c r="N11" t="n">
-        <v>2342.291394605965</v>
+        <v>3813.905540636431</v>
       </c>
       <c r="O11" t="n">
-        <v>2342.291394605965</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="P11" t="n">
-        <v>3050.570673763893</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268076</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>3519.845194023119</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>3298.919623067752</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>3298.919623067752</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2941.430208194001</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2545.038858494348</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2133.318859662096</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1727.981589616986</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>79.9308927249114</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>351.6283820045025</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>351.6283820045025</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L12" t="n">
-        <v>351.6283820045025</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M12" t="n">
-        <v>520.0338126636104</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N12" t="n">
-        <v>1417.02640348073</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O12" t="n">
-        <v>1417.02640348073</v>
+        <v>1853.966407265231</v>
       </c>
       <c r="P12" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2526.980583261087</v>
+        <v>3751.878227437043</v>
       </c>
       <c r="C13" t="n">
-        <v>2355.008020140003</v>
+        <v>3579.905664315959</v>
       </c>
       <c r="D13" t="n">
-        <v>2191.691247266774</v>
+        <v>3416.58889144273</v>
       </c>
       <c r="E13" t="n">
-        <v>2025.483041419628</v>
+        <v>3250.380685595583</v>
       </c>
       <c r="F13" t="n">
-        <v>1853.621267194188</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="G13" t="n">
-        <v>1687.36429748842</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H13" t="n">
-        <v>1543.568028996574</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I13" t="n">
-        <v>1443.79946073685</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J13" t="n">
-        <v>1501.290788961008</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K13" t="n">
-        <v>1727.818390166846</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L13" t="n">
-        <v>2082.507711461266</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M13" t="n">
-        <v>2473.693506431517</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N13" t="n">
-        <v>2851.185017307553</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O13" t="n">
-        <v>3206.613145987316</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P13" t="n">
-        <v>3497.212357909217</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q13" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R13" t="n">
-        <v>3624.212488149979</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S13" t="n">
-        <v>3624.212488149979</v>
+        <v>4968.290183452925</v>
       </c>
       <c r="T13" t="n">
-        <v>3624.212488149979</v>
+        <v>4724.950835678825</v>
       </c>
       <c r="U13" t="n">
-        <v>3460.905620665093</v>
+        <v>4724.950835678825</v>
       </c>
       <c r="V13" t="n">
-        <v>3460.905620665093</v>
+        <v>4443.239368286853</v>
       </c>
       <c r="W13" t="n">
-        <v>3186.053216837606</v>
+        <v>4168.386964459366</v>
       </c>
       <c r="X13" t="n">
-        <v>2943.489320283411</v>
+        <v>4168.386964459366</v>
       </c>
       <c r="Y13" t="n">
-        <v>2717.146551973153</v>
+        <v>3942.044196149108</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2510.883034420487</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G14" t="n">
-        <v>405.2494995454936</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195284</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>435.0877085798951</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>548.3062129717255</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="L14" t="n">
-        <v>548.3062129717255</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M14" t="n">
-        <v>1445.298803788845</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N14" t="n">
-        <v>2342.291394605965</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O14" t="n">
-        <v>2342.291394605965</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P14" t="n">
-        <v>3050.570673763893</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268076</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>3556.994239712493</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3336.068668757126</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3336.068668757126</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3336.068668757126</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3336.068668757126</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3336.068668757126</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2930.731398712017</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>72.48424976299957</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>72.48424976299957</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="M15" t="n">
-        <v>969.4768405801192</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="N15" t="n">
-        <v>969.4768405801192</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="O15" t="n">
-        <v>1858.958118591591</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P15" t="n">
-        <v>1858.958118591591</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>1858.958118591591</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2433.966219114505</v>
+        <v>896.9441885421152</v>
       </c>
       <c r="C16" t="n">
-        <v>2261.993655993421</v>
+        <v>724.9716254210311</v>
       </c>
       <c r="D16" t="n">
-        <v>2098.676883120192</v>
+        <v>724.9716254210311</v>
       </c>
       <c r="E16" t="n">
-        <v>1932.468677273046</v>
+        <v>558.7634195738847</v>
       </c>
       <c r="F16" t="n">
-        <v>1760.606903047606</v>
+        <v>386.9016453484451</v>
       </c>
       <c r="G16" t="n">
-        <v>1687.36429748842</v>
+        <v>220.6446756426772</v>
       </c>
       <c r="H16" t="n">
-        <v>1543.568028996574</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>1443.79946073685</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>1501.290788961008</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>1727.818390166846</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>2082.507711461266</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>2473.693506431517</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>2851.185017307553</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>3206.613145987316</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>3497.212357909217</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>3624.212488149979</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>3577.173874837152</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>3407.038827356287</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>3407.038827356287</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U16" t="n">
-        <v>3407.038827356287</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="V16" t="n">
-        <v>3125.327359964316</v>
+        <v>1830.869225946121</v>
       </c>
       <c r="W16" t="n">
-        <v>2850.474956136829</v>
+        <v>1556.016822118634</v>
       </c>
       <c r="X16" t="n">
-        <v>2850.474956136829</v>
+        <v>1313.452925564439</v>
       </c>
       <c r="Y16" t="n">
-        <v>2624.132187826571</v>
+        <v>1087.110157254181</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5513,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1180.414480198223</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2184.700581617281</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>3160.951640103982</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>4006.096290254794</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="P17" t="n">
-        <v>4714.375569412722</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>381.4468456473314</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>516.5477476675582</v>
+        <v>1013.622061704626</v>
       </c>
       <c r="C19" t="n">
-        <v>516.5477476675582</v>
+        <v>841.6494985835418</v>
       </c>
       <c r="D19" t="n">
-        <v>353.2309747943289</v>
+        <v>678.3327257103125</v>
       </c>
       <c r="E19" t="n">
-        <v>353.2309747943289</v>
+        <v>512.124519863166</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573982</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
         <v>345.8675501573982</v>
@@ -5671,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5701,22 +5703,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1954.406162673115</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1954.406162673115</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1672.694695281144</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1672.694695281144</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>1430.130798726949</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>1203.788030416692</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>188.235025135897</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>903.7433331113961</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1833.368380730673</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>374.0002026854196</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M21" t="n">
-        <v>1429.986740661465</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N21" t="n">
-        <v>1446.844867123559</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O21" t="n">
-        <v>1446.844867123559</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1041.68756743822</v>
+        <v>703.5067984699893</v>
       </c>
       <c r="C22" t="n">
-        <v>869.7150043171358</v>
+        <v>703.5067984699893</v>
       </c>
       <c r="D22" t="n">
-        <v>706.3982314439065</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="E22" t="n">
         <v>540.1900255967601</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W22" t="n">
-        <v>1260.306816359498</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X22" t="n">
-        <v>1260.306816359498</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y22" t="n">
-        <v>1231.853536150285</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,40 +5977,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6072,22 +6074,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N24" t="n">
-        <v>1828.971033901635</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O24" t="n">
-        <v>1828.971033901635</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F25" t="n">
         <v>512.1245198631661</v>
@@ -6172,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>2002.531292319261</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>2002.531292319261</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>1031.815467295608</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>1031.815467295608</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1125.089101572745</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>1125.089101572745</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M26" t="n">
-        <v>2129.375202991803</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478504</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6312,10 +6314,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>543.5554397491844</v>
+        <v>759.8870954416583</v>
       </c>
       <c r="C28" t="n">
-        <v>371.5828766281004</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="D28" t="n">
-        <v>371.5828766281004</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.376393044857</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U28" t="n">
-        <v>1759.191944545161</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.48047715319</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.628073325703</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X28" t="n">
-        <v>960.064176771508</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y28" t="n">
-        <v>733.72140846125</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E29" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6479,7 +6481,7 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6497,16 +6499,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y29" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6551,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>913.8534934449018</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="C31" t="n">
-        <v>741.8809303238178</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="D31" t="n">
-        <v>578.5641574505885</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="E31" t="n">
-        <v>412.355951603442</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1847.778530848907</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1847.778530848907</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1572.92612702142</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1330.362230467225</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>1104.019462156967</v>
+        <v>702.2417247166104</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K32" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P32" t="n">
-        <v>4935.721337874071</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6740,7 +6742,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y32" t="n">
         <v>2960.549862354846</v>
@@ -6774,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>946.5481644506465</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M33" t="n">
-        <v>946.5481644506465</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N33" t="n">
-        <v>946.5481644506465</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
-        <v>1836.029442462118</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>609.4538236255814</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C34" t="n">
-        <v>437.4812605044974</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D34" t="n">
-        <v>274.1644876312681</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E34" t="n">
         <v>274.1644876312681</v>
@@ -6856,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6886,22 +6888,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.376393044857</v>
+        <v>2271.4829827684</v>
       </c>
       <c r="U34" t="n">
-        <v>1759.191944545161</v>
+        <v>1991.298534268705</v>
       </c>
       <c r="V34" t="n">
-        <v>1477.48047715319</v>
+        <v>1709.587066876733</v>
       </c>
       <c r="W34" t="n">
-        <v>1268.5264572021</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="X34" t="n">
-        <v>1025.962560647905</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y34" t="n">
-        <v>799.6197923376471</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6925,61 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409523</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409523</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7005,37 +7007,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N36" t="n">
-        <v>1828.971033901635</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="O36" t="n">
-        <v>1828.971033901635</v>
+        <v>1836.029442462118</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>941.9189991784957</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>769.9464360574117</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>606.6296631841824</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>440.4214573370359</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7123,22 +7125,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2157.555503974472</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.555503974472</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="V37" t="n">
-        <v>1875.844036582501</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W37" t="n">
-        <v>1600.991632755014</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>1358.427736200819</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.084967890561</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7154,70 +7156,70 @@
         <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261615</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988729</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883215</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623564</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747412</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7242,34 +7244,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>971.931772215671</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>971.931772215671</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M39" t="n">
-        <v>971.931772215671</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N39" t="n">
-        <v>971.931772215671</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O39" t="n">
-        <v>971.931772215671</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q39" t="n">
         <v>1828.971033901635</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>3572.276103682928</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>3572.276103682928</v>
       </c>
       <c r="D40" t="n">
-        <v>850.194499935752</v>
+        <v>3408.959330809699</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886055</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631659</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573981</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655525</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S40" t="n">
-        <v>2175.553023635689</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="T40" t="n">
-        <v>1932.213675861589</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="U40" t="n">
-        <v>1932.213675861589</v>
+        <v>4787.912608478905</v>
       </c>
       <c r="V40" t="n">
-        <v>1650.502208469618</v>
+        <v>4506.201141086934</v>
       </c>
       <c r="W40" t="n">
-        <v>1375.649804642131</v>
+        <v>4231.348737259446</v>
       </c>
       <c r="X40" t="n">
-        <v>1375.649804642131</v>
+        <v>3988.784840705252</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>3762.442072394993</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1659.781912757745</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1232.881182771045</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>809.5885619560449</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>809.5885619560449</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>405.2494995454935</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>435.087708579895</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>435.087708579895</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M41" t="n">
-        <v>1332.080299397014</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N41" t="n">
-        <v>2229.072890214134</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>2342.291394605963</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>3050.570673763891</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3403.28691719461</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3144.932007791022</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2787.442592917272</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2787.442592917272</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2375.722594085019</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1970.38532403991</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>79.93089272491137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>351.6283820045024</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>520.0338126636109</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L42" t="n">
-        <v>520.0338126636109</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M42" t="n">
-        <v>1417.02640348073</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N42" t="n">
-        <v>1417.02640348073</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="O42" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.4407514167002</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C43" t="n">
-        <v>596.4681882956162</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D43" t="n">
-        <v>596.4681882956162</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="E43" t="n">
-        <v>430.2599824484697</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F43" t="n">
-        <v>430.2599824484697</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G43" t="n">
-        <v>264.0030127427019</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H43" t="n">
-        <v>172.2528180227236</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2035.723616382436</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>1792.384268608336</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>1512.19982010864</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>1512.19982010864</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>1237.347416281153</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X43" t="n">
-        <v>994.7835197269582</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y43" t="n">
-        <v>768.4407514167002</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2087.590413605487</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1660.689683618787</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988743</v>
       </c>
       <c r="G44" t="n">
-        <v>405.2494995454935</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1497.146744455151</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>1497.146744455151</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>1497.146744455151</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O44" t="n">
-        <v>2342.291394605963</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P44" t="n">
-        <v>3050.570673763891</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023117</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3519.845194023117</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3261.490284619529</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2904.000869745779</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2507.609520046126</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2095.889521213873</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2095.889521213873</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G45" t="n">
-        <v>125.86034300069</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299954</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I45" t="n">
-        <v>79.93089272491137</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J45" t="n">
-        <v>351.6283820045024</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="K45" t="n">
-        <v>618.8093763575289</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="L45" t="n">
-        <v>618.8093763575289</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="M45" t="n">
-        <v>618.8093763575289</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="N45" t="n">
-        <v>618.8093763575289</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="O45" t="n">
-        <v>618.8093763575289</v>
+        <v>4467.626807001981</v>
       </c>
       <c r="P45" t="n">
-        <v>1335.007093396027</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q45" t="n">
-        <v>1799.152570258806</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1055.896804027512</v>
+        <v>786.1193363033792</v>
       </c>
       <c r="C46" t="n">
-        <v>883.9242409064284</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D46" t="n">
-        <v>720.6074680331991</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E46" t="n">
-        <v>554.3992621860526</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F46" t="n">
-        <v>382.537487960613</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G46" t="n">
-        <v>216.2805182548452</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2205.858663863301</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2035.723616382436</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1989.821841431518</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1989.821841431518</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1989.821841431518</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>1714.969437604031</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>1472.405541049836</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="Y46" t="n">
-        <v>1246.062772739578</v>
+        <v>976.2853050154449</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7981,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>38.06915396219553</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>522.0887335865885</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
@@ -7994,13 +7996,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641969</v>
       </c>
       <c r="Q2" t="n">
-        <v>112.616039913105</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8060,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249872989</v>
       </c>
       <c r="L3" t="n">
-        <v>100.4610141345439</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662936</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>47.10147559401885</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8140,7 +8142,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>93.31363181977926</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8149,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>134.3202603144915</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4449756170225</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>548.1209608588846</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8298,25 +8300,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>374.902922497767</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>172.0949298956461</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8380,7 +8382,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>359.7783135124</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>84.86874406016992</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8529,28 +8531,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>185.2192072314655</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>108.6396787202253</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8620,10 +8622,10 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>385.5915703929544</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
         <v>315.9153581548562</v>
@@ -8690,28 +8692,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>152.6741680809364</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369264</v>
+        <v>772.3958632350179</v>
       </c>
       <c r="N11" t="n">
-        <v>943.3327448719407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,31 +8765,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>193.2032761275885</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>927.3961502510363</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>79.37077728675541</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8927,19 +8929,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>150.1267264431228</v>
+        <v>583.8722719747261</v>
       </c>
       <c r="L14" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369264</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -9006,13 +9008,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>271.7091431950329</v>
       </c>
       <c r="M15" t="n">
-        <v>929.1499025498226</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9027,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>46.11106257790028</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9176,13 +9178,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>859.1289664256981</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>322.1890847023786</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9237,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
@@ -9249,10 +9251,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>1014.65485790195</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9261,10 +9263,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>116.2202743644436</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9413,16 +9415,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>38.37143878131349</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>125.0635317985269</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9650,16 +9652,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>262.439123722643</v>
       </c>
       <c r="P23" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,25 +9722,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>698.7993741930985</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>702.6160445827093</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9893,10 +9895,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10127,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>464.8736204150517</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10197,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10352,7 +10354,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10364,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.60750039798609</v>
+        <v>322.1890847023777</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10422,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
@@ -10431,7 +10433,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>227.574314522856</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10443,7 +10445,7 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>97.48892355252579</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>466.3243076206832</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
@@ -10668,25 +10670,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>698.7993741930985</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>97.48892355252579</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>763.5414113871902</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10896,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10917,10 +10919,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>418.6332501171365</v>
+        <v>324.1795137750922</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -11060,19 +11062,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369259</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>151.7530850043366</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11133,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>192.5057294485944</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>929.1499025498222</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>509.0341153029024</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11300,19 +11302,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>388.3632827354076</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>625.182225377852</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>292.2790261091176</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11388,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>675.8201980628547</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>20.50784865894053</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>69.6248922156385</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>115.7088052046616</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>36.77755523248058</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>92.08422050511614</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>25.19976319244695</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.8533660926238</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23941,16 +23943,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>130.8813961177309</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>158.351845133597</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>195.9105932200349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>239.4674746249149</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>68.10191868181103</v>
+        <v>89.51401145584094</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>87.70072044070869</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>183.8370372785617</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>229.7855238263079</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>65.239400037633</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,13 +25365,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>116.9973198203192</v>
+        <v>79.23215548632189</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25549,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>100.7753911293532</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>62.34260699462129</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>108.152503479271</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25688,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>64.08248351549699</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>51.52561303414866</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>407.4337641163123</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>154.2416662463654</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>195.4631970949501</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>534066.3877616365</v>
+        <v>535672.7606780115</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>534066.3877616365</v>
+        <v>540873.8437662581</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>534066.3877616365</v>
+        <v>540873.8437662581</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>448337.8604854944</v>
+        <v>563887.8763742825</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>448337.8604854944</v>
+        <v>563887.8763742825</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>563887.8763742823</v>
+        <v>563887.8763742825</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>448337.8604854941</v>
+        <v>563887.8763742825</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>448337.8604854943</v>
+        <v>563887.8763742825</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>538759.4679103255</v>
+        <v>538759.4679103256</v>
       </c>
       <c r="C2" t="n">
-        <v>538759.467910326</v>
+        <v>538759.4679103256</v>
       </c>
       <c r="D2" t="n">
-        <v>538759.4679103255</v>
+        <v>538759.4679103257</v>
       </c>
       <c r="E2" t="n">
-        <v>413372.7938833159</v>
+        <v>519878.1229021389</v>
       </c>
       <c r="F2" t="n">
-        <v>413372.793883316</v>
+        <v>519878.1229021389</v>
       </c>
       <c r="G2" t="n">
+        <v>519878.1229021384</v>
+      </c>
+      <c r="H2" t="n">
         <v>519878.1229021386</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>519878.1229021383</v>
+      </c>
+      <c r="J2" t="n">
         <v>519878.1229021384</v>
-      </c>
-      <c r="I2" t="n">
-        <v>519878.1229021385</v>
-      </c>
-      <c r="J2" t="n">
-        <v>519878.1229021386</v>
       </c>
       <c r="K2" t="n">
         <v>519878.1229021384</v>
       </c>
       <c r="L2" t="n">
-        <v>519878.1229021384</v>
+        <v>519878.1229021386</v>
       </c>
       <c r="M2" t="n">
-        <v>519878.1229021387</v>
+        <v>519878.1229021385</v>
       </c>
       <c r="N2" t="n">
         <v>519878.1229021384</v>
       </c>
       <c r="O2" t="n">
-        <v>413372.793883316</v>
+        <v>519878.122902139</v>
       </c>
       <c r="P2" t="n">
-        <v>413372.7938833159</v>
+        <v>519878.1229021389</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695904</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.833673613</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.668009602</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802881</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035702046</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214761.4484639727</v>
+        <v>211246.6236465256</v>
       </c>
       <c r="C4" t="n">
-        <v>214761.4484639727</v>
+        <v>199866.3919893415</v>
       </c>
       <c r="D4" t="n">
-        <v>214761.4484639727</v>
+        <v>199866.3919893415</v>
       </c>
       <c r="E4" t="n">
-        <v>80277.85946797882</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="F4" t="n">
-        <v>80277.85946797881</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="G4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="H4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="I4" t="n">
         <v>101012.8540458318</v>
@@ -26442,10 +26444,10 @@
         <v>101012.8540458319</v>
       </c>
       <c r="K4" t="n">
+        <v>101012.8540458319</v>
+      </c>
+      <c r="L4" t="n">
         <v>101012.8540458318</v>
-      </c>
-      <c r="L4" t="n">
-        <v>101012.8540458319</v>
       </c>
       <c r="M4" t="n">
         <v>101012.8540458318</v>
@@ -26454,10 +26456,10 @@
         <v>101012.8540458318</v>
       </c>
       <c r="O4" t="n">
-        <v>80277.85946797879</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="P4" t="n">
-        <v>80277.85946797878</v>
+        <v>101012.8540458318</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.2228221611</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26497,19 +26499,19 @@
         <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
+        <v>77750.06218842967</v>
+      </c>
+      <c r="M5" t="n">
         <v>77750.06218842969</v>
       </c>
-      <c r="M5" t="n">
-        <v>77750.06218842966</v>
-      </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>107691.584558004</v>
+        <v>102346.9253720485</v>
       </c>
       <c r="C6" t="n">
-        <v>262317.3051761249</v>
+        <v>248039.991209943</v>
       </c>
       <c r="D6" t="n">
-        <v>262317.3051761244</v>
+        <v>271446.8248835561</v>
       </c>
       <c r="E6" t="n">
-        <v>145243.2365858554</v>
+        <v>125375.8501112369</v>
       </c>
       <c r="F6" t="n">
-        <v>278006.9045954575</v>
+        <v>341115.2066678774</v>
       </c>
       <c r="G6" t="n">
-        <v>238955.2865735673</v>
+        <v>341115.2066678769</v>
       </c>
       <c r="H6" t="n">
-        <v>341115.2066678769</v>
+        <v>341115.2066678771</v>
       </c>
       <c r="I6" t="n">
-        <v>341115.206667877</v>
+        <v>341115.2066678768</v>
       </c>
       <c r="J6" t="n">
-        <v>220392.6897251201</v>
+        <v>214537.9380875888</v>
       </c>
       <c r="K6" t="n">
-        <v>341115.2066678769</v>
+        <v>322468.6063108564</v>
       </c>
       <c r="L6" t="n">
-        <v>341115.2066678769</v>
+        <v>341115.2066678772</v>
       </c>
       <c r="M6" t="n">
-        <v>230305.8465587439</v>
+        <v>161051.3352127094</v>
       </c>
       <c r="N6" t="n">
         <v>341115.2066678769</v>
       </c>
       <c r="O6" t="n">
-        <v>278006.9045954575</v>
+        <v>341115.2066678775</v>
       </c>
       <c r="P6" t="n">
-        <v>278006.9045954575</v>
+        <v>341115.2066678773</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539656</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374946</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374946</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539656</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162853</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771604</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353622</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539656</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162853</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.65321627716</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539656</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162853</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771604</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353622</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>142.1755530335178</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27436,7 +27438,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>229.0153817891225</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>115.2142524734885</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>134.5622501091628</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>18.18935231702335</v>
-      </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>116.7785992343815</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,10 +27675,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27774,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>134.0471675772175</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>108.6426448561517</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>226.4593363808662</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>213.4027168294474</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>71.37329841685329</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>48.89490464996143</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29092,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29530,7 +29532,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-8.313350008393172e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -34699,13 +34701,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>2.304553167386192</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539656</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,13 +34716,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539656</v>
       </c>
       <c r="Q2" t="n">
-        <v>76.49136530850697</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539656</v>
       </c>
       <c r="L3" t="n">
-        <v>77.94592742031439</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539656</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>25.75844738047718</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34860,7 +34862,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>71.39487192407803</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34869,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>111.8210728160671</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>324.0137127175907</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35018,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>352.3878357835375</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>150.7519016821045</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35100,7 +35102,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>85.46778899800312</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35340,10 +35342,10 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>364.842669417354</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
         <v>293.5345574968697</v>
@@ -35410,28 +35412,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>114.3621256483135</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374946</v>
+        <v>734.9646003355862</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374946</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>170.1064956152605</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>906.0531220374946</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>57.59993608192674</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,19 +35649,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>114.3621256483135</v>
+        <v>548.1076711799168</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374946</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374946</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35726,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>249.1940564808034</v>
       </c>
       <c r="M15" t="n">
-        <v>906.0531220374946</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.43814318375614</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35896,13 +35898,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>821.7380070696739</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>286.0644100977806</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35957,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,10 +35971,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>993.3118296884085</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>86.80031487885702</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36133,16 +36135,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>17.02841056777183</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36370,16 +36372,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>225.0481643666189</v>
       </c>
       <c r="P23" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>677.4563459795569</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>666.8514437878999</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36613,10 +36615,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36847,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>428.7489458104537</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37072,7 +37074,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37084,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>62.48282579338804</v>
+        <v>286.0644100977797</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37163,7 +37165,7 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>75.71808234769713</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>428.7489458104519</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>677.4563459795569</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>75.71808234769713</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>726.1504520311661</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37637,10 +37639,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>396.8624089123078</v>
+        <v>302.4086725702635</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>82.84778796434657</v>
@@ -37780,19 +37782,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374942</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374942</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>114.3621256483125</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>170.1064956152611</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>906.0531220374942</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,19 +38022,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>350.0512403027847</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>269.8797922757843</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>654.049356858026</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2205778.471394364</v>
+        <v>2205081.810189273</v>
       </c>
     </row>
     <row r="7">
@@ -664,22 +664,22 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>276.8841415733319</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>312.8511181437639</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -822,19 +822,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>46.4693526710085</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>7.334720376069267</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>72.71756522150915</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>304.0943407581122</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1065,7 +1065,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>36.09598890596773</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1074,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>213.8764542074661</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1122,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>189.1905442677485</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1144,13 +1144,13 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>49.49512077555104</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1296,19 +1296,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>192.0110496463976</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1378,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396356</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1530,22 +1530,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>98.80880479041799</v>
+        <v>102.1026425880272</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1593,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1770,19 +1770,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.1585426144802</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>44.02781544003288</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>110.0245581786281</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2092,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2140,7 +2140,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.91246389134805</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2478,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2541,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0.670782963737995</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>75.03211233283403</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2952,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>40.24230334859364</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3192,10 +3192,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>11.12043047005107</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3274,19 +3274,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396356</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>161.6737988100371</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3663,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>63.77073265932181</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3723,7 +3723,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>203.953684887366</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3793,7 +3793,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>97.601121629</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>35.5682641013447</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3960,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3985,19 +3985,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864462</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4137,19 +4137,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>16.01117124350774</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>823.499659571801</v>
+        <v>1247.927030124197</v>
       </c>
       <c r="C2" t="n">
-        <v>800.6393336255052</v>
+        <v>1225.066704177902</v>
       </c>
       <c r="D2" t="n">
-        <v>520.9583825413315</v>
+        <v>1205.814487403306</v>
       </c>
       <c r="E2" t="n">
-        <v>499.0218467295931</v>
+        <v>779.8375475511635</v>
       </c>
       <c r="F2" t="n">
-        <v>73.89766491899334</v>
+        <v>354.7133657405637</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884603</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884603</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231725</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J2" t="n">
-        <v>401.3055941092127</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="K2" t="n">
-        <v>403.5871017449251</v>
+        <v>403.5871017449285</v>
       </c>
       <c r="L2" t="n">
-        <v>882.526025987351</v>
+        <v>403.5871017449285</v>
       </c>
       <c r="M2" t="n">
-        <v>882.526025987351</v>
+        <v>882.5260259873562</v>
       </c>
       <c r="N2" t="n">
-        <v>882.526025987351</v>
+        <v>882.5260259873562</v>
       </c>
       <c r="O2" t="n">
-        <v>882.526025987351</v>
+        <v>882.5260259873562</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229777</v>
+        <v>1361.464950229784</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.55042973396</v>
+        <v>1817.550429733967</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615862</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489003</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533636</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="U2" t="n">
-        <v>1609.813899533636</v>
+        <v>1676.751855212282</v>
       </c>
       <c r="V2" t="n">
-        <v>1252.324484659885</v>
+        <v>1676.751855212282</v>
       </c>
       <c r="W2" t="n">
-        <v>1252.324484659885</v>
+        <v>1676.751855212282</v>
       </c>
       <c r="X2" t="n">
-        <v>1244.644889868037</v>
+        <v>1669.072260420433</v>
       </c>
       <c r="Y2" t="n">
-        <v>839.307619822927</v>
+        <v>1263.734990375323</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237724</v>
+        <v>693.5426250668148</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412772</v>
+        <v>576.0367215843196</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565623</v>
+        <v>472.1967630996046</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294995</v>
+        <v>367.4948293725418</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124036</v>
+        <v>273.848999055446</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000766</v>
+        <v>179.79522727305</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231725</v>
+        <v>126.4191340353596</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422909</v>
+        <v>133.8657769972714</v>
       </c>
       <c r="J3" t="n">
-        <v>317.8462675338202</v>
+        <v>405.5632662768625</v>
       </c>
       <c r="K3" t="n">
-        <v>796.7851917762462</v>
+        <v>405.5632662768625</v>
       </c>
       <c r="L3" t="n">
-        <v>796.7851917762462</v>
+        <v>405.5632662768625</v>
       </c>
       <c r="M3" t="n">
-        <v>1275.724116018672</v>
+        <v>884.5021905192901</v>
       </c>
       <c r="N3" t="n">
-        <v>1301.224978925344</v>
+        <v>884.5021905192901</v>
       </c>
       <c r="O3" t="n">
-        <v>1301.224978925344</v>
+        <v>910.0030534259593</v>
       </c>
       <c r="P3" t="n">
-        <v>1301.224978925344</v>
+        <v>1388.941977668387</v>
       </c>
       <c r="Q3" t="n">
-        <v>1765.370455788124</v>
+        <v>1853.087454531166</v>
       </c>
       <c r="R3" t="n">
-        <v>1847.389765872827</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S3" t="n">
-        <v>1766.065518434081</v>
+        <v>1853.782517177124</v>
       </c>
       <c r="T3" t="n">
-        <v>1624.18558273176</v>
+        <v>1711.902581474802</v>
       </c>
       <c r="U3" t="n">
-        <v>1439.417386651396</v>
+        <v>1527.134385394439</v>
       </c>
       <c r="V3" t="n">
-        <v>1234.444247790663</v>
+        <v>1322.161246533705</v>
       </c>
       <c r="W3" t="n">
-        <v>1037.92287062388</v>
+        <v>1125.639869366922</v>
       </c>
       <c r="X3" t="n">
-        <v>874.4455243905428</v>
+        <v>962.1625231335852</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438352</v>
+        <v>822.4696344868776</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739.52845090818</v>
+        <v>712.0614513592168</v>
       </c>
       <c r="C4" t="n">
-        <v>567.555887787096</v>
+        <v>540.0888882381328</v>
       </c>
       <c r="D4" t="n">
-        <v>520.6171477153703</v>
+        <v>376.7721153649034</v>
       </c>
       <c r="E4" t="n">
-        <v>520.6171477153703</v>
+        <v>210.563909517757</v>
       </c>
       <c r="F4" t="n">
-        <v>348.7553734899307</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="G4" t="n">
-        <v>182.4984037841629</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="H4" t="n">
-        <v>38.70213529231725</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231725</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647528</v>
+        <v>96.1934635164754</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223125</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271497</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974005</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773436</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.5074224532</v>
+        <v>1517.507422453206</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.1066343751</v>
+        <v>1808.106634375107</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615862</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303036</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.933103822171</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="T4" t="n">
-        <v>1717.933103822171</v>
+        <v>1927.697956155193</v>
       </c>
       <c r="U4" t="n">
-        <v>1437.748655322475</v>
+        <v>1927.697956155193</v>
       </c>
       <c r="V4" t="n">
-        <v>1156.037187930504</v>
+        <v>1645.986488763222</v>
       </c>
       <c r="W4" t="n">
-        <v>1156.037187930504</v>
+        <v>1371.134084935735</v>
       </c>
       <c r="X4" t="n">
-        <v>1156.037187930504</v>
+        <v>1128.57018838154</v>
       </c>
       <c r="Y4" t="n">
-        <v>929.6944196202458</v>
+        <v>902.2274200712825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1258.989642055132</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C5" t="n">
-        <v>832.0889120684317</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
-        <v>812.836695293836</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>386.8597554416936</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M5" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
         <v>1651.269438076291</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1283.774063102812</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1283.774063102812</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X5" t="n">
-        <v>1276.094468310963</v>
+        <v>1416.799903930471</v>
       </c>
       <c r="Y5" t="n">
-        <v>1274.797602306257</v>
+        <v>1011.462633885361</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115937</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L6" t="n">
-        <v>51.94486801115937</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M6" t="n">
-        <v>602.6104029955975</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N6" t="n">
-        <v>751.8547856608809</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>992.2781682025577</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>820.3056050814737</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>656.9888322082444</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>490.7806263610979</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1981.571904688276</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U7" t="n">
-        <v>1981.571904688276</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="V7" t="n">
-        <v>1699.860437296305</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>1425.008033468818</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>1182.444136914623</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>1182.444136914623</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>533.9701437626245</v>
+        <v>1392.046023333888</v>
       </c>
       <c r="C8" t="n">
-        <v>511.1098178163287</v>
+        <v>1369.185697387592</v>
       </c>
       <c r="D8" t="n">
-        <v>87.81719700132894</v>
+        <v>945.8930765725927</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>923.9565407608543</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>498.8323589502545</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>94.49329653970312</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4807,22 +4807,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
         <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>2059.098288819458</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2059.098288819458</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1542.1289725064</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1542.1289725064</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1130.408973674147</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>725.0717036290372</v>
+        <v>1811.894387625418</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>205.6899987133984</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>205.6899987133984</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1307.021068682275</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
         <v>1307.021068682275</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>488.1011306554951</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>316.1285675344111</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>316.1285675344111</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>316.1285675344111</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>144.2667933089716</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4992,22 +4992,22 @@
         <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1983.922083951167</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1703.737635451472</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1422.026168059501</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1147.173764232014</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>904.6098676778188</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>678.2670993675608</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883223</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
@@ -5050,19 +5050,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2837.65448214973</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3813.905540636431</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O11" t="n">
-        <v>4659.050190787243</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P11" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q11" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291426</v>
@@ -5077,16 +5077,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>964.4851292537592</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="L12" t="n">
-        <v>964.4851292537592</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="M12" t="n">
-        <v>964.4851292537592</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="N12" t="n">
-        <v>964.4851292537592</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O12" t="n">
-        <v>1853.966407265231</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3751.878227437043</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="C13" t="n">
-        <v>3579.905664315959</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="D13" t="n">
-        <v>3416.58889144273</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E13" t="n">
-        <v>3250.380685595583</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F13" t="n">
-        <v>3078.518911370144</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G13" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>4968.290183452925</v>
+        <v>2179.581758406808</v>
       </c>
       <c r="T13" t="n">
-        <v>4724.950835678825</v>
+        <v>1936.242410632708</v>
       </c>
       <c r="U13" t="n">
-        <v>4724.950835678825</v>
+        <v>1656.057962133013</v>
       </c>
       <c r="V13" t="n">
-        <v>4443.239368286853</v>
+        <v>1374.346494741041</v>
       </c>
       <c r="W13" t="n">
-        <v>4168.386964459366</v>
+        <v>1099.494090913554</v>
       </c>
       <c r="X13" t="n">
-        <v>4168.386964459366</v>
+        <v>856.9301943593596</v>
       </c>
       <c r="Y13" t="n">
-        <v>3942.044196149108</v>
+        <v>630.5874260491016</v>
       </c>
     </row>
     <row r="14">
@@ -5281,19 +5281,19 @@
         <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>1007.532766690842</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2011.8188681099</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2988.069926596601</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747413</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P14" t="n">
         <v>4541.493855905341</v>
@@ -5305,19 +5305,19 @@
         <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
         <v>3365.887132399956</v>
@@ -5357,25 +5357,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>692.7876399741681</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L15" t="n">
-        <v>939.4897558901635</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M15" t="n">
-        <v>939.4897558901635</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N15" t="n">
-        <v>939.4897558901635</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O15" t="n">
-        <v>1828.971033901635</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P15" t="n">
-        <v>1828.971033901635</v>
+        <v>1680.682846292257</v>
       </c>
       <c r="Q15" t="n">
         <v>1828.971033901635</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>896.9441885421152</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C16" t="n">
-        <v>724.9716254210311</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D16" t="n">
-        <v>724.9716254210311</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E16" t="n">
-        <v>558.7634195738847</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F16" t="n">
-        <v>386.9016453484451</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>220.6446756426772</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
         <v>102.3027134058285</v>
@@ -5466,22 +5466,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2112.580693338092</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>2112.580693338092</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1830.869225946121</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>1556.016822118634</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X16" t="n">
-        <v>1313.452925564439</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y16" t="n">
-        <v>1087.110157254181</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="17">
@@ -5515,28 +5515,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905341</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905341</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291426</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1013.622061704626</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>841.6494985835418</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>678.3327257103125</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>512.124519863166</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1954.406162673115</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1954.406162673115</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1672.694695281144</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1672.694695281144</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1430.130798726949</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1203.788030416692</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
         <v>839.4070255988738</v>
@@ -5752,28 +5752,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>188.235025135897</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>903.7433331113961</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1833.368380730673</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2837.654482149731</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3813.905540636432</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O20" t="n">
-        <v>4659.050190787244</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5837,22 +5837,22 @@
         <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>1808.730580298577</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>1808.730580298577</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1808.730580298577</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.730580298577</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>703.5067984699893</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>703.5067984699893</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>540.1900255967601</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>540.1900255967601</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
-        <v>368.3282513713204</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="G22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.628073325703</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>960.064176771508</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>733.72140846125</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6071,19 +6071,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>939.1015214887346</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M24" t="n">
-        <v>939.1015214887346</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N24" t="n">
-        <v>939.1015214887346</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O24" t="n">
-        <v>1828.582799500206</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>841.6494985835419</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C25" t="n">
-        <v>841.6494985835419</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D25" t="n">
-        <v>678.3327257103126</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E25" t="n">
-        <v>512.1245198631661</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>152.682489089834</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>152.682489089834</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X25" t="n">
-        <v>1031.815467295608</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.815467295608</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6302,25 +6302,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>759.8870954416583</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>587.9145323205743</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>587.9145323205743</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>512.1245198631661</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1503.646164133598</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1228.793760306111</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>986.2298637519162</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>759.8870954416583</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>512.0757560045447</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C31" t="n">
-        <v>512.0757560045447</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D31" t="n">
-        <v>512.0757560045447</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E31" t="n">
-        <v>345.8675501573982</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>702.2417247166104</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2184.700581617281</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3160.951640103982</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4006.096290254794</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P32" t="n">
-        <v>4714.375569412722</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6742,7 +6742,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
         <v>2960.549862354846</v>
@@ -6779,28 +6779,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L33" t="n">
-        <v>305.3113489363686</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M33" t="n">
-        <v>305.3113489363686</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N33" t="n">
-        <v>305.3113489363686</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>1853.966407265231</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1853.966407265231</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1853.966407265231</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>775.6620294727279</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>603.6894663516439</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>440.3726934784146</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
         <v>274.1644876312681</v>
@@ -6858,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2271.4829827684</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1991.298534268705</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1709.587066876733</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.734663049246</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1192.170766495052</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>965.8279981847936</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6925,19 +6925,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
@@ -6949,37 +6949,37 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7016,28 +7016,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>946.5481644506465</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>946.5481644506465</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>946.5481644506465</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1836.029442462118</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2119.408873334071</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2119.408873334071</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7159,7 +7159,7 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F38" t="n">
         <v>839.4070255988736</v>
@@ -7168,43 +7168,43 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>292.0244587153436</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1007.532766690843</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,28 +7250,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
         <v>1828.971033901635</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3572.276103682928</v>
+        <v>612.3940204581199</v>
       </c>
       <c r="C40" t="n">
-        <v>3572.276103682928</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="D40" t="n">
-        <v>3408.959330809699</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E40" t="n">
-        <v>3344.544449335636</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.544449335636</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>5068.0970569786</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>4787.912608478905</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>4506.201141086934</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>4231.348737259446</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X40" t="n">
-        <v>3988.784840705252</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y40" t="n">
-        <v>3762.442072394993</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="41">
@@ -7411,49 +7411,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.818868109901</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
         <v>2960.549862354846</v>
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>1429.986740661465</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>1429.986740661465</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>516.5477476675582</v>
+        <v>648.2727960958064</v>
       </c>
       <c r="C43" t="n">
-        <v>516.5477476675582</v>
+        <v>476.3002329747223</v>
       </c>
       <c r="D43" t="n">
-        <v>417.9607561231137</v>
+        <v>476.3002329747223</v>
       </c>
       <c r="E43" t="n">
-        <v>417.9607561231137</v>
+        <v>310.0920271275759</v>
       </c>
       <c r="F43" t="n">
-        <v>246.0989818976742</v>
+        <v>138.2302529021363</v>
       </c>
       <c r="G43" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
         <v>102.3027134058285</v>
@@ -7569,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W43" t="n">
-        <v>985.454412532011</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X43" t="n">
-        <v>742.8905159778161</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y43" t="n">
-        <v>516.5477476675582</v>
+        <v>838.4387648078721</v>
       </c>
     </row>
     <row r="44">
@@ -7630,16 +7630,16 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988743</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7648,7 +7648,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
         <v>1180.414480198223</v>
@@ -7657,37 +7657,37 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
         <v>3365.887132399956</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>3578.14552899051</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>3578.14552899051</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>3578.14552899051</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>3578.14552899051</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>3578.14552899051</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>4467.626807001981</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>786.1193363033792</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C46" t="n">
-        <v>769.9464360574118</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D46" t="n">
-        <v>606.6296631841825</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E46" t="n">
-        <v>440.421457337036</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F46" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
         <v>102.3027134058285</v>
@@ -7806,10 +7806,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7833,25 +7833,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.628073325703</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.628073325703</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y46" t="n">
-        <v>976.2853050154449</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>38.06915396219553</v>
+        <v>38.06915396219886</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0887335865885</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>521.2079540533991</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
@@ -7996,7 +7996,7 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641969</v>
+        <v>521.3520529641987</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8060,22 +8060,22 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>506.1759249872989</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662936</v>
+        <v>506.8734716662954</v>
       </c>
       <c r="N3" t="n">
-        <v>47.10147559401885</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>48.93033710269607</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.547532358796</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8142,7 +8142,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>93.31363181977926</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8151,7 +8151,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>94.64032950871376</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8233,7 +8233,7 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>548.1209608588846</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8294,31 +8294,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>172.0949298956461</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,25 +8455,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>84.86874406016992</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8528,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>185.2192072314655</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
@@ -8698,22 +8698,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>772.3958632350179</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>117.2451261364169</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8786,13 +8786,13 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>79.37077728675541</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,22 +8929,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>583.8722719747261</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>625.4779643536363</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9005,13 +9005,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>271.7091431950329</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9020,13 +9020,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>172.5330863792592</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,22 +9172,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213577</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>859.1289664256981</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.2202743644436</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9412,19 +9412,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>763.430074865614</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
@@ -9497,13 +9497,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>125.0635317985269</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,13 +9646,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>262.439123722643</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
@@ -9661,7 +9661,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>867.7664080100944</v>
@@ -9731,10 +9731,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>105.0107851302144</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9895,7 +9895,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,28 +9950,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,22 +10120,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>188.0467246345914</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10199,7 +10199,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>1121.661155963915</v>
@@ -10211,10 +10211,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10363,13 +10363,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>322.1890847023777</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10427,13 +10427,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>227.574314522856</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10445,13 +10445,13 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>81.27285547607089</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,16 +10597,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>882.2851839951734</v>
       </c>
       <c r="P35" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10664,13 +10664,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10679,16 +10679,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>97.48892355252579</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>221.0580860608543</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10840,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10919,10 +10919,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>324.1795137750922</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -11065,13 +11065,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>877.2336749314295</v>
+        <v>1043.074428213577</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11083,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>509.0341153029024</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,16 +11305,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>625.182225377852</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11390,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>675.8201980628547</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>69.6248922156385</v>
+        <v>66.33105441802925</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>25.19976319244695</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23706,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>228.0760643491792</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>130.8813961177309</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>158.351845133597</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>66.4407354247175</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>92.48232787976171</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>239.4674746249149</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>89.51401145584094</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>183.8370372785617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>229.7855238263079</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>79.23215548632189</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>100.7753911293532</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>68.15019490184613</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>64.08248351549699</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>129.0261359073655</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>154.2416662463654</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>535672.7606780115</v>
+        <v>535672.7606780117</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>563887.8763742825</v>
+        <v>563887.8763742824</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>563887.8763742825</v>
+        <v>563887.8763742824</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>563887.8763742825</v>
+        <v>563887.8763742824</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>563887.8763742825</v>
+        <v>563887.8763742824</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>563887.8763742825</v>
+        <v>563887.8763742824</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>563887.8763742825</v>
+        <v>563887.8763742824</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>538759.4679103256</v>
+        <v>538759.4679103257</v>
       </c>
       <c r="C2" t="n">
         <v>538759.4679103256</v>
       </c>
       <c r="D2" t="n">
-        <v>538759.4679103257</v>
+        <v>538759.4679103255</v>
       </c>
       <c r="E2" t="n">
-        <v>519878.1229021389</v>
+        <v>519878.1229021387</v>
       </c>
       <c r="F2" t="n">
-        <v>519878.1229021389</v>
+        <v>519878.1229021386</v>
       </c>
       <c r="G2" t="n">
-        <v>519878.1229021384</v>
+        <v>519878.1229021386</v>
       </c>
       <c r="H2" t="n">
+        <v>519878.1229021388</v>
+      </c>
+      <c r="I2" t="n">
         <v>519878.1229021386</v>
-      </c>
-      <c r="I2" t="n">
-        <v>519878.1229021383</v>
       </c>
       <c r="J2" t="n">
         <v>519878.1229021384</v>
       </c>
       <c r="K2" t="n">
-        <v>519878.1229021384</v>
+        <v>519878.1229021386</v>
       </c>
       <c r="L2" t="n">
         <v>519878.1229021386</v>
       </c>
       <c r="M2" t="n">
-        <v>519878.1229021385</v>
+        <v>519878.1229021387</v>
       </c>
       <c r="N2" t="n">
         <v>519878.1229021384</v>
       </c>
       <c r="O2" t="n">
-        <v>519878.122902139</v>
+        <v>519878.1229021387</v>
       </c>
       <c r="P2" t="n">
-        <v>519878.1229021389</v>
+        <v>519878.1229021388</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695904</v>
+        <v>162124.696069591</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.833673613</v>
+        <v>23406.83367361243</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802881</v>
+        <v>126577.2685802886</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035702046</v>
+        <v>18646.60035701996</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211246.6236465256</v>
+        <v>211246.6236465253</v>
       </c>
       <c r="C4" t="n">
         <v>199866.3919893415</v>
@@ -26435,10 +26435,10 @@
         <v>101012.8540458318</v>
       </c>
       <c r="H4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="I4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="J4" t="n">
         <v>101012.8540458319</v>
@@ -26447,7 +26447,7 @@
         <v>101012.8540458319</v>
       </c>
       <c r="L4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="M4" t="n">
         <v>101012.8540458318</v>
@@ -26456,7 +26456,7 @@
         <v>101012.8540458318</v>
       </c>
       <c r="O4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="P4" t="n">
         <v>101012.8540458318</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.2228221611</v>
+        <v>63041.22282216122</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26499,19 +26499,19 @@
         <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
+        <v>77750.06218842969</v>
+      </c>
+      <c r="M5" t="n">
         <v>77750.06218842967</v>
       </c>
-      <c r="M5" t="n">
-        <v>77750.06218842969</v>
-      </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102346.9253720485</v>
+        <v>102346.9253720482</v>
       </c>
       <c r="C6" t="n">
-        <v>248039.991209943</v>
+        <v>248039.9912099436</v>
       </c>
       <c r="D6" t="n">
-        <v>271446.8248835561</v>
+        <v>271446.8248835559</v>
       </c>
       <c r="E6" t="n">
-        <v>125375.8501112369</v>
+        <v>125324.8194490524</v>
       </c>
       <c r="F6" t="n">
-        <v>341115.2066678774</v>
+        <v>341064.1760056929</v>
       </c>
       <c r="G6" t="n">
-        <v>341115.2066678769</v>
+        <v>341064.1760056927</v>
       </c>
       <c r="H6" t="n">
-        <v>341115.2066678771</v>
+        <v>341064.1760056929</v>
       </c>
       <c r="I6" t="n">
-        <v>341115.2066678768</v>
+        <v>341064.1760056927</v>
       </c>
       <c r="J6" t="n">
-        <v>214537.9380875888</v>
+        <v>214486.9074254039</v>
       </c>
       <c r="K6" t="n">
-        <v>322468.6063108564</v>
+        <v>322417.5756486728</v>
       </c>
       <c r="L6" t="n">
-        <v>341115.2066678772</v>
+        <v>341064.1760056927</v>
       </c>
       <c r="M6" t="n">
-        <v>161051.3352127094</v>
+        <v>161000.3045505253</v>
       </c>
       <c r="N6" t="n">
-        <v>341115.2066678769</v>
+        <v>341064.1760056926</v>
       </c>
       <c r="O6" t="n">
-        <v>341115.2066678775</v>
+        <v>341064.1760056929</v>
       </c>
       <c r="P6" t="n">
-        <v>341115.2066678773</v>
+        <v>341064.176005693</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539656</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539656</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162853</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539656</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162853</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539656</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162853</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>142.1755530335178</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>87.44455364268197</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27542,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>115.2142524734885</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>233.5712339202897</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>342.9323154271056</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>116.7785992343815</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>134.0471675772175</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>65.01789851058524</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>226.4593363808662</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27864,13 +27864,13 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>245.3945739651545</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>48.89490464996143</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34701,13 +34701,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>2.304553167386192</v>
+        <v>2.304553167389523</v>
       </c>
       <c r="L2" t="n">
-        <v>483.7766911539656</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539656</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34780,22 +34780,22 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7766911539656</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539656</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="N3" t="n">
-        <v>25.75844738047718</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>25.75844738047385</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34862,7 +34862,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>71.39487192407803</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34871,7 +34871,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>72.14114201028931</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>510.5455990486533</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35014,31 +35014,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>150.7519016821045</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>48.74406945557187</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35248,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>162.8199733981322</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
@@ -35418,22 +35418,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>734.9646003355862</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>57.59993608192674</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>548.1076711799168</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>587.902602543405</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>249.1940564808034</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>149.7860480902807</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,22 +35892,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314145</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>821.7380070696739</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>86.80031487885702</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36132,19 +36132,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>103.2926905936983</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,13 +36366,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>225.0481643666189</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
         <v>715.433615311038</v>
@@ -36381,7 +36381,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>845.2513212958648</v>
@@ -36451,10 +36451,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>83.23994392538575</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36615,7 +36615,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,22 +36840,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>167.4356103012581</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>1100.318127750374</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37083,13 +37083,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>286.0644100977797</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>57.59993608192674</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37317,16 +37317,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>844.8942246391492</v>
       </c>
       <c r="P35" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>75.71808234769713</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>191.6381265752677</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37560,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>302.4086725702635</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>82.84778796434657</v>
@@ -37785,13 +37785,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>839.8024120319977</v>
+        <v>1005.643165314145</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37803,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,16 +38025,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>587.9026025434059</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>654.049356858026</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
